--- a/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E7324-AA84-41E5-8F93-27343E26F4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B8211-E755-481F-A142-2597A802DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="5" r:id="rId1"/>
     <sheet name="S2" sheetId="4" r:id="rId2"/>
     <sheet name="S3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -982,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1002,7 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4439,13 +4449,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C88E49-7CB0-4BCC-B221-DD27C490C328}">
-  <dimension ref="A1:U210"/>
+  <dimension ref="A1:U211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K211" sqref="K211"/>
+      <selection pane="bottomRight" activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4561,6 +4571,10 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5">
+        <f>A6-A5</f>
+        <v>30</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -4575,6 +4589,10 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -4589,6 +4607,10 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -4603,6 +4625,10 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
@@ -4617,6 +4643,10 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -4631,6 +4661,10 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -4645,6 +4679,10 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -4659,6 +4697,10 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
@@ -4673,6 +4715,10 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
@@ -4687,6 +4733,10 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D14" t="s">
         <v>190</v>
       </c>
@@ -4701,6 +4751,10 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
@@ -4715,6 +4769,10 @@
       <c r="B16" t="s">
         <v>30</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
@@ -4729,6 +4787,10 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -4743,6 +4805,10 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
@@ -4757,6 +4823,10 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -4771,6 +4841,10 @@
       <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K20" t="s">
         <v>194</v>
       </c>
@@ -4782,6 +4856,10 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -4796,6 +4874,10 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D22" t="s">
         <v>66</v>
       </c>
@@ -4810,6 +4892,10 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
@@ -4824,6 +4910,10 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D24" t="s">
         <v>131</v>
       </c>
@@ -4838,6 +4928,10 @@
       <c r="B25" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="K25" t="s">
         <v>197</v>
       </c>
@@ -4849,6 +4943,10 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -4857,6 +4955,10 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -4871,6 +4973,10 @@
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
@@ -4885,6 +4991,10 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
@@ -4899,6 +5009,10 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D30" t="s">
         <v>20</v>
       </c>
@@ -4913,6 +5027,10 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
@@ -4927,6 +5045,10 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D32" t="s">
         <v>66</v>
       </c>
@@ -4941,6 +5063,10 @@
       <c r="B33" t="s">
         <v>18</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
@@ -4955,6 +5081,10 @@
       <c r="B34" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K34" t="s">
         <v>200</v>
       </c>
@@ -4966,6 +5096,10 @@
       <c r="B35" t="s">
         <v>18</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
@@ -4980,6 +5114,10 @@
       <c r="B36" t="s">
         <v>30</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D36" t="s">
         <v>32</v>
       </c>
@@ -4994,6 +5132,10 @@
       <c r="B37" t="s">
         <v>18</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
@@ -5008,6 +5150,10 @@
       <c r="B38" t="s">
         <v>18</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
@@ -5022,6 +5168,10 @@
       <c r="B39" t="s">
         <v>18</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
@@ -5036,6 +5186,10 @@
       <c r="B40" t="s">
         <v>18</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D40" t="s">
         <v>20</v>
       </c>
@@ -5050,6 +5204,10 @@
       <c r="B41" t="s">
         <v>18</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
@@ -5064,6 +5222,10 @@
       <c r="B42" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K42" t="s">
         <v>205</v>
       </c>
@@ -5075,6 +5237,10 @@
       <c r="B43" t="s">
         <v>18</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
@@ -5089,6 +5255,10 @@
       <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="K44" t="s">
         <v>205</v>
       </c>
@@ -5100,6 +5270,10 @@
       <c r="B45" t="s">
         <v>18</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
@@ -5114,6 +5288,10 @@
       <c r="B46" t="s">
         <v>18</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D46" t="s">
         <v>20</v>
       </c>
@@ -5128,6 +5306,10 @@
       <c r="B47" t="s">
         <v>115</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="D47" t="s">
         <v>29</v>
       </c>
@@ -5142,6 +5324,10 @@
       <c r="B48" t="s">
         <v>18</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
@@ -5156,6 +5342,10 @@
       <c r="B49" t="s">
         <v>115</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
@@ -5170,6 +5360,10 @@
       <c r="B50" t="s">
         <v>18</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
@@ -5184,6 +5378,10 @@
       <c r="B51" t="s">
         <v>115</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D51" t="s">
         <v>29</v>
       </c>
@@ -5198,6 +5396,10 @@
       <c r="B52" t="s">
         <v>18</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
@@ -5212,6 +5414,10 @@
       <c r="B53" t="s">
         <v>30</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D53" t="s">
         <v>131</v>
       </c>
@@ -5226,6 +5432,10 @@
       <c r="B54" t="s">
         <v>18</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
@@ -5240,6 +5450,10 @@
       <c r="B55" t="s">
         <v>30</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D55" t="s">
         <v>131</v>
       </c>
@@ -5254,6 +5468,10 @@
       <c r="B56" t="s">
         <v>18</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
@@ -5268,6 +5486,10 @@
       <c r="B57" t="s">
         <v>30</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D57" t="s">
         <v>213</v>
       </c>
@@ -5282,6 +5504,10 @@
       <c r="B58" t="s">
         <v>18</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
       <c r="D58" t="s">
         <v>19</v>
       </c>
@@ -5296,6 +5522,10 @@
       <c r="B59" t="s">
         <v>30</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D59" t="s">
         <v>131</v>
       </c>
@@ -5310,6 +5540,10 @@
       <c r="B60" t="s">
         <v>18</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
@@ -5324,6 +5558,10 @@
       <c r="B61" t="s">
         <v>115</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D61" t="s">
         <v>29</v>
       </c>
@@ -5338,6 +5576,10 @@
       <c r="B62" t="s">
         <v>18</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
@@ -5352,6 +5594,10 @@
       <c r="B63" t="s">
         <v>30</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D63" t="s">
         <v>31</v>
       </c>
@@ -5366,6 +5612,10 @@
       <c r="B64" t="s">
         <v>18</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="D64" t="s">
         <v>19</v>
       </c>
@@ -5380,6 +5630,10 @@
       <c r="B65" t="s">
         <v>30</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D65" t="s">
         <v>32</v>
       </c>
@@ -5394,6 +5648,10 @@
       <c r="B66" t="s">
         <v>18</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
@@ -5408,6 +5666,10 @@
       <c r="B67" t="s">
         <v>30</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D67" t="s">
         <v>31</v>
       </c>
@@ -5422,6 +5684,10 @@
       <c r="B68" t="s">
         <v>115</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D68" t="s">
         <v>29</v>
       </c>
@@ -5436,6 +5702,10 @@
       <c r="B69" t="s">
         <v>18</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
@@ -5450,6 +5720,10 @@
       <c r="B70" t="s">
         <v>224</v>
       </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C133" si="1">A71-A70</f>
+        <v>4</v>
+      </c>
       <c r="K70" t="s">
         <v>223</v>
       </c>
@@ -5461,6 +5735,10 @@
       <c r="B71" t="s">
         <v>18</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="D71" t="s">
         <v>19</v>
       </c>
@@ -5475,6 +5753,10 @@
       <c r="B72" t="s">
         <v>30</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D72" t="s">
         <v>31</v>
       </c>
@@ -5489,6 +5771,10 @@
       <c r="B73" t="s">
         <v>18</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
@@ -5503,6 +5789,10 @@
       <c r="B74" t="s">
         <v>115</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D74" t="s">
         <v>29</v>
       </c>
@@ -5517,6 +5807,10 @@
       <c r="B75" t="s">
         <v>18</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
@@ -5531,6 +5825,10 @@
       <c r="B76" t="s">
         <v>30</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
@@ -5545,6 +5843,10 @@
       <c r="B77" t="s">
         <v>18</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
@@ -5559,6 +5861,10 @@
       <c r="B78" t="s">
         <v>115</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D78" t="s">
         <v>29</v>
       </c>
@@ -5573,6 +5879,10 @@
       <c r="B79" t="s">
         <v>18</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D79" t="s">
         <v>19</v>
       </c>
@@ -5587,6 +5897,10 @@
       <c r="B80" t="s">
         <v>115</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="D80" t="s">
         <v>29</v>
       </c>
@@ -5601,6 +5915,10 @@
       <c r="B81" t="s">
         <v>18</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D81" t="s">
         <v>20</v>
       </c>
@@ -5615,6 +5933,10 @@
       <c r="B82" t="s">
         <v>115</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D82" t="s">
         <v>29</v>
       </c>
@@ -5629,6 +5951,10 @@
       <c r="B83" t="s">
         <v>18</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D83" t="s">
         <v>20</v>
       </c>
@@ -5643,6 +5969,10 @@
       <c r="B84" t="s">
         <v>30</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D84" t="s">
         <v>31</v>
       </c>
@@ -5657,6 +5987,10 @@
       <c r="B85" t="s">
         <v>18</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D85" t="s">
         <v>19</v>
       </c>
@@ -5671,6 +6005,10 @@
       <c r="B86" t="s">
         <v>30</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D86" t="s">
         <v>54</v>
       </c>
@@ -5685,6 +6023,10 @@
       <c r="B87" t="s">
         <v>18</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="D87" t="s">
         <v>19</v>
       </c>
@@ -5699,6 +6041,10 @@
       <c r="B88" t="s">
         <v>115</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D88" t="s">
         <v>29</v>
       </c>
@@ -5713,6 +6059,10 @@
       <c r="B89" t="s">
         <v>18</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D89" t="s">
         <v>19</v>
       </c>
@@ -5727,6 +6077,10 @@
       <c r="B90" t="s">
         <v>18</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D90" t="s">
         <v>20</v>
       </c>
@@ -5741,6 +6095,10 @@
       <c r="B91" t="s">
         <v>18</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="D91" t="s">
         <v>19</v>
       </c>
@@ -5755,6 +6113,10 @@
       <c r="B92" t="s">
         <v>18</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D92" t="s">
         <v>20</v>
       </c>
@@ -5769,6 +6131,10 @@
       <c r="B93" t="s">
         <v>18</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="K93" t="s">
         <v>236</v>
       </c>
@@ -5780,6 +6146,10 @@
       <c r="B94" t="s">
         <v>237</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K94" t="s">
         <v>236</v>
       </c>
@@ -5791,6 +6161,10 @@
       <c r="B95" t="s">
         <v>18</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D95" t="s">
         <v>19</v>
       </c>
@@ -5805,6 +6179,10 @@
       <c r="B96" t="s">
         <v>30</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D96" t="s">
         <v>31</v>
       </c>
@@ -5819,6 +6197,10 @@
       <c r="B97" t="s">
         <v>18</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D97" t="s">
         <v>19</v>
       </c>
@@ -5833,6 +6215,10 @@
       <c r="B98" t="s">
         <v>237</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K98" t="s">
         <v>239</v>
       </c>
@@ -5844,6 +6230,10 @@
       <c r="B99" t="s">
         <v>18</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D99" t="s">
         <v>19</v>
       </c>
@@ -5858,6 +6248,10 @@
       <c r="B100" t="s">
         <v>30</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D100" t="s">
         <v>31</v>
       </c>
@@ -5872,6 +6266,10 @@
       <c r="B101" t="s">
         <v>18</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D101" t="s">
         <v>20</v>
       </c>
@@ -5886,6 +6284,10 @@
       <c r="B102" t="s">
         <v>30</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="D102" t="s">
         <v>52</v>
       </c>
@@ -5900,6 +6302,10 @@
       <c r="B103" t="s">
         <v>18</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D103" t="s">
         <v>19</v>
       </c>
@@ -5914,6 +6320,10 @@
       <c r="B104" t="s">
         <v>115</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
@@ -5928,6 +6338,10 @@
       <c r="B105" t="s">
         <v>18</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
@@ -5942,6 +6356,10 @@
       <c r="B106" t="s">
         <v>30</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="D106" t="s">
         <v>66</v>
       </c>
@@ -5956,6 +6374,10 @@
       <c r="B107" t="s">
         <v>115</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
@@ -5970,6 +6392,10 @@
       <c r="B108" t="s">
         <v>30</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D108" t="s">
         <v>52</v>
       </c>
@@ -5987,6 +6413,10 @@
       <c r="B109" t="s">
         <v>30</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D109" t="s">
         <v>57</v>
       </c>
@@ -6004,6 +6434,10 @@
       <c r="B110" t="s">
         <v>115</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D110" t="s">
         <v>29</v>
       </c>
@@ -6018,6 +6452,10 @@
       <c r="B111" t="s">
         <v>18</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D111" t="s">
         <v>20</v>
       </c>
@@ -6032,6 +6470,10 @@
       <c r="B112" t="s">
         <v>18</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D112" t="s">
         <v>19</v>
       </c>
@@ -6046,6 +6488,10 @@
       <c r="B113" t="s">
         <v>30</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="D113" t="s">
         <v>54</v>
       </c>
@@ -6060,6 +6506,10 @@
       <c r="B114" t="s">
         <v>18</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D114" t="s">
         <v>20</v>
       </c>
@@ -6074,6 +6524,10 @@
       <c r="B115" t="s">
         <v>30</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D115" t="s">
         <v>52</v>
       </c>
@@ -6088,6 +6542,10 @@
       <c r="B116" t="s">
         <v>30</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D116" t="s">
         <v>31</v>
       </c>
@@ -6102,6 +6560,10 @@
       <c r="B117" t="s">
         <v>18</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="D117" t="s">
         <v>19</v>
       </c>
@@ -6116,6 +6578,10 @@
       <c r="B118" t="s">
         <v>30</v>
       </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D118" t="s">
         <v>54</v>
       </c>
@@ -6130,6 +6596,10 @@
       <c r="B119" t="s">
         <v>18</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="D119" t="s">
         <v>19</v>
       </c>
@@ -6144,6 +6614,10 @@
       <c r="B120" t="s">
         <v>18</v>
       </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D120" t="s">
         <v>20</v>
       </c>
@@ -6158,6 +6632,10 @@
       <c r="B121" t="s">
         <v>18</v>
       </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D121" t="s">
         <v>19</v>
       </c>
@@ -6172,6 +6650,10 @@
       <c r="B122" t="s">
         <v>18</v>
       </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D122" t="s">
         <v>20</v>
       </c>
@@ -6186,6 +6668,10 @@
       <c r="B123" t="s">
         <v>18</v>
       </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D123" t="s">
         <v>19</v>
       </c>
@@ -6200,6 +6686,10 @@
       <c r="B124" t="s">
         <v>183</v>
       </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K124" t="s">
         <v>252</v>
       </c>
@@ -6211,6 +6701,10 @@
       <c r="B125" t="s">
         <v>18</v>
       </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="D125" t="s">
         <v>19</v>
       </c>
@@ -6225,6 +6719,10 @@
       <c r="B126" t="s">
         <v>18</v>
       </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D126" t="s">
         <v>20</v>
       </c>
@@ -6239,6 +6737,10 @@
       <c r="B127" t="s">
         <v>18</v>
       </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D127" t="s">
         <v>19</v>
       </c>
@@ -6253,6 +6755,10 @@
       <c r="B128" t="s">
         <v>18</v>
       </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D128" t="s">
         <v>25</v>
       </c>
@@ -6267,6 +6773,10 @@
       <c r="B129" t="s">
         <v>30</v>
       </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D129" t="s">
         <v>32</v>
       </c>
@@ -6281,6 +6791,10 @@
       <c r="B130" t="s">
         <v>115</v>
       </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
@@ -6295,6 +6809,10 @@
       <c r="B131" t="s">
         <v>18</v>
       </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="D131" t="s">
         <v>19</v>
       </c>
@@ -6309,6 +6827,10 @@
       <c r="B132" t="s">
         <v>105</v>
       </c>
+      <c r="C132">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K132" t="s">
         <v>256</v>
       </c>
@@ -6320,6 +6842,10 @@
       <c r="B133" t="s">
         <v>18</v>
       </c>
+      <c r="C133">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="D133" t="s">
         <v>19</v>
       </c>
@@ -6334,6 +6860,10 @@
       <c r="B134" t="s">
         <v>30</v>
       </c>
+      <c r="C134">
+        <f t="shared" ref="C134:C197" si="2">A135-A134</f>
+        <v>17</v>
+      </c>
       <c r="D134" t="s">
         <v>257</v>
       </c>
@@ -6348,6 +6878,10 @@
       <c r="B135" t="s">
         <v>18</v>
       </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
       <c r="D135" t="s">
         <v>19</v>
       </c>
@@ -6362,6 +6896,10 @@
       <c r="B136" t="s">
         <v>30</v>
       </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D136" t="s">
         <v>66</v>
       </c>
@@ -6376,6 +6914,10 @@
       <c r="B137" t="s">
         <v>115</v>
       </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
@@ -6390,6 +6932,10 @@
       <c r="B138" t="s">
         <v>18</v>
       </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D138" t="s">
         <v>19</v>
       </c>
@@ -6404,6 +6950,10 @@
       <c r="B139" t="s">
         <v>30</v>
       </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="D139" t="s">
         <v>31</v>
       </c>
@@ -6418,6 +6968,10 @@
       <c r="B140" t="s">
         <v>18</v>
       </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D140" t="s">
         <v>19</v>
       </c>
@@ -6432,6 +6986,10 @@
       <c r="B141" t="s">
         <v>30</v>
       </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
       <c r="D141" t="s">
         <v>31</v>
       </c>
@@ -6446,6 +7004,10 @@
       <c r="B142" t="s">
         <v>18</v>
       </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="D142" t="s">
         <v>19</v>
       </c>
@@ -6460,6 +7022,10 @@
       <c r="B143" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="K143" t="s">
         <v>263</v>
       </c>
@@ -6471,6 +7037,10 @@
       <c r="B144" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="K144" t="s">
         <v>263</v>
       </c>
@@ -6482,6 +7052,10 @@
       <c r="B145" t="s">
         <v>18</v>
       </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D145" t="s">
         <v>19</v>
       </c>
@@ -6496,6 +7070,10 @@
       <c r="B146" t="s">
         <v>30</v>
       </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="D146" t="s">
         <v>31</v>
       </c>
@@ -6510,6 +7088,10 @@
       <c r="B147" t="s">
         <v>18</v>
       </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D147" t="s">
         <v>20</v>
       </c>
@@ -6524,6 +7106,10 @@
       <c r="B148" t="s">
         <v>18</v>
       </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D148" t="s">
         <v>19</v>
       </c>
@@ -6538,6 +7124,10 @@
       <c r="B149" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="K149" t="s">
         <v>265</v>
       </c>
@@ -6549,6 +7139,10 @@
       <c r="B150" t="s">
         <v>18</v>
       </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D150" t="s">
         <v>19</v>
       </c>
@@ -6563,6 +7157,10 @@
       <c r="B151" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="K151" t="s">
         <v>265</v>
       </c>
@@ -6571,8 +7169,12 @@
       <c r="A152">
         <v>2021</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>18</v>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
         <v>19</v>
@@ -6585,8 +7187,12 @@
       <c r="A153">
         <v>2033</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>30</v>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
         <v>131</v>
@@ -6599,8 +7205,12 @@
       <c r="A154">
         <v>2048</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>18</v>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
         <v>19</v>
@@ -6613,8 +7223,12 @@
       <c r="A155">
         <v>2068</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>30</v>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
         <v>54</v>
@@ -6630,6 +7244,10 @@
       <c r="B156" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="K156" t="s">
         <v>269</v>
       </c>
@@ -6638,8 +7256,12 @@
       <c r="A157">
         <v>2100</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>18</v>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="D157" t="s">
         <v>20</v>
@@ -6652,8 +7274,12 @@
       <c r="A158">
         <v>2108</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>18</v>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
         <v>19</v>
@@ -6669,6 +7295,10 @@
       <c r="B159" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K159" t="s">
         <v>269</v>
       </c>
@@ -6677,8 +7307,12 @@
       <c r="A160">
         <v>2137</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>18</v>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -6691,8 +7325,12 @@
       <c r="A161">
         <v>2140</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>18</v>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
         <v>20</v>
@@ -6705,8 +7343,12 @@
       <c r="A162">
         <v>2145</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>18</v>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D162" t="s">
         <v>19</v>
@@ -6722,6 +7364,10 @@
       <c r="B163" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="K163" t="s">
         <v>270</v>
       </c>
@@ -6730,8 +7376,12 @@
       <c r="A164">
         <v>2167</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>30</v>
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D164" t="s">
         <v>54</v>
@@ -6744,8 +7394,12 @@
       <c r="A165">
         <v>2172</v>
       </c>
-      <c r="B165" s="11" t="s">
-        <v>18</v>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
         <v>19</v>
@@ -6758,8 +7412,12 @@
       <c r="A166">
         <v>2188</v>
       </c>
-      <c r="B166" s="11" t="s">
-        <v>30</v>
+      <c r="B166" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
         <v>31</v>
@@ -6772,8 +7430,12 @@
       <c r="A167">
         <v>2190</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>18</v>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
         <v>19</v>
@@ -6786,8 +7448,12 @@
       <c r="A168">
         <v>2192</v>
       </c>
-      <c r="B168" s="11" t="s">
-        <v>18</v>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="D168" t="s">
         <v>20</v>
@@ -6800,8 +7466,12 @@
       <c r="A169">
         <v>2195</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" t="s">
         <v>115</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
@@ -6814,8 +7484,12 @@
       <c r="A170">
         <v>2197</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>30</v>
+      <c r="B170" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="D170" t="s">
         <v>54</v>
@@ -6828,8 +7502,12 @@
       <c r="A171">
         <v>2224</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>30</v>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D171" t="s">
         <v>66</v>
@@ -6842,8 +7520,12 @@
       <c r="A172">
         <v>2228</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>18</v>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -6859,6 +7541,10 @@
       <c r="B173" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K173" t="s">
         <v>273</v>
       </c>
@@ -6867,8 +7553,12 @@
       <c r="A174">
         <v>2234</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>18</v>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -6881,8 +7571,12 @@
       <c r="A175">
         <v>2240</v>
       </c>
-      <c r="B175" s="11" t="s">
-        <v>30</v>
+      <c r="B175" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
         <v>54</v>
@@ -6895,8 +7589,12 @@
       <c r="A176">
         <v>2244</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>18</v>
+      <c r="B176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
@@ -6909,8 +7607,12 @@
       <c r="A177">
         <v>2282</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>30</v>
+      <c r="B177" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="D177" t="s">
         <v>54</v>
@@ -6923,8 +7625,12 @@
       <c r="A178">
         <v>2308</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>18</v>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D178" t="s">
         <v>20</v>
@@ -6937,8 +7643,12 @@
       <c r="A179">
         <v>2313</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>18</v>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
         <v>19</v>
@@ -6951,8 +7661,12 @@
       <c r="A180">
         <v>2342</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>30</v>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
         <v>54</v>
@@ -6965,8 +7679,12 @@
       <c r="A181">
         <v>2351</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>30</v>
+      <c r="B181" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
         <v>54</v>
@@ -6982,6 +7700,10 @@
       <c r="B182" t="s">
         <v>18</v>
       </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D182" t="s">
         <v>20</v>
       </c>
@@ -6993,8 +7715,12 @@
       <c r="A183">
         <v>2372</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>30</v>
+      <c r="B183" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="D183" t="s">
         <v>54</v>
@@ -7007,8 +7733,12 @@
       <c r="A184">
         <v>2385</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>30</v>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
         <v>54</v>
@@ -7021,8 +7751,12 @@
       <c r="A185">
         <v>2395</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>30</v>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
         <v>54</v>
@@ -7035,8 +7769,12 @@
       <c r="A186">
         <v>2413</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>18</v>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="D186" t="s">
         <v>19</v>
@@ -7052,6 +7790,10 @@
       <c r="B187" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="K187" t="s">
         <v>282</v>
       </c>
@@ -7060,8 +7802,12 @@
       <c r="A188">
         <v>2443</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>18</v>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -7077,6 +7823,10 @@
       <c r="B189" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="K189" t="s">
         <v>282</v>
       </c>
@@ -7085,8 +7835,12 @@
       <c r="A190">
         <v>2450</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>18</v>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D190" t="s">
         <v>19</v>
@@ -7099,8 +7853,12 @@
       <c r="A191">
         <v>2452</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>30</v>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D191" t="s">
         <v>66</v>
@@ -7113,8 +7871,12 @@
       <c r="A192">
         <v>2457</v>
       </c>
-      <c r="B192" s="11" t="s">
-        <v>18</v>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="D192" t="s">
         <v>19</v>
@@ -7127,8 +7889,12 @@
       <c r="A193">
         <v>2485</v>
       </c>
-      <c r="B193" s="11" t="s">
-        <v>30</v>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="D193" t="s">
         <v>66</v>
@@ -7141,8 +7907,12 @@
       <c r="A194">
         <v>2497</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>18</v>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="D194" t="s">
         <v>19</v>
@@ -7155,8 +7925,12 @@
       <c r="A195">
         <v>2536</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>30</v>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
         <v>31</v>
@@ -7169,8 +7943,12 @@
       <c r="A196">
         <v>2545</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>18</v>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
         <v>19</v>
@@ -7183,8 +7961,12 @@
       <c r="A197">
         <v>2567</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>30</v>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
         <v>31</v>
@@ -7197,8 +7979,12 @@
       <c r="A198">
         <v>2577</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>18</v>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ref="C198:C209" si="3">A199-A198</f>
+        <v>5</v>
       </c>
       <c r="D198" t="s">
         <v>20</v>
@@ -7214,6 +8000,10 @@
       <c r="B199" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="K199" t="s">
         <v>288</v>
       </c>
@@ -7222,8 +8012,12 @@
       <c r="A200">
         <v>2586</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>18</v>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
@@ -7236,8 +8030,12 @@
       <c r="A201">
         <v>2592</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" t="s">
         <v>105</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K201" t="s">
         <v>288</v>
@@ -7247,8 +8045,12 @@
       <c r="A202">
         <v>2595</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>30</v>
+      <c r="B202" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="D202" t="s">
         <v>32</v>
@@ -7264,6 +8066,10 @@
       <c r="B203" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="K203" t="s">
         <v>290</v>
       </c>
@@ -7272,8 +8078,12 @@
       <c r="A204">
         <v>2622</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>18</v>
+      <c r="B204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="D204" t="s">
         <v>19</v>
@@ -7286,16 +8096,24 @@
       <c r="A205">
         <v>2650</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" t="s">
         <v>195</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2700</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>30</v>
+      <c r="B206" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
         <v>52</v>
@@ -7308,8 +8126,12 @@
       <c r="A207">
         <v>2719</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>18</v>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
         <v>19</v>
@@ -7322,8 +8144,12 @@
       <c r="A208">
         <v>2728</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>30</v>
+      <c r="B208" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
         <v>54</v>
@@ -7336,7 +8162,11 @@
       <c r="A209">
         <v>2740</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D209" t="s">
@@ -7350,11 +8180,13 @@
       <c r="A210">
         <v>2770</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="K210" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B8211-E755-481F-A142-2597A802DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC97110-B67D-4605-95C2-9D952A85097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="5" r:id="rId1"/>
@@ -1298,13 +1298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE288BC-2A6D-46F6-AFDF-199D1688263E}">
-  <dimension ref="A1:U114"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,6 +1420,10 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5">
+        <f>A6-A5</f>
+        <v>29</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -1434,6 +1438,10 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>3</v>
+      </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -1448,6 +1456,10 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -1462,6 +1474,10 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
@@ -1476,6 +1492,10 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -1490,6 +1510,10 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -1504,6 +1528,10 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -1518,6 +1546,10 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -1532,6 +1564,10 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
@@ -1546,6 +1582,10 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -1560,6 +1600,10 @@
       <c r="B15" t="s">
         <v>30</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
@@ -1574,6 +1618,10 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
@@ -1588,6 +1636,10 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
@@ -1602,6 +1654,10 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -1616,6 +1672,10 @@
       <c r="B19" t="s">
         <v>35</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -1630,6 +1690,10 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -1644,6 +1708,10 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D21" t="s">
         <v>31</v>
       </c>
@@ -1658,6 +1726,10 @@
       <c r="B22" t="s">
         <v>18</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
@@ -1672,6 +1744,10 @@
       <c r="B23" t="s">
         <v>30</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -1686,6 +1762,10 @@
       <c r="B24" t="s">
         <v>18</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
@@ -1700,6 +1780,10 @@
       <c r="B25" t="s">
         <v>30</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
@@ -1714,6 +1798,10 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
@@ -1728,6 +1816,10 @@
       <c r="B27" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="K27" t="s">
         <v>44</v>
       </c>
@@ -1739,6 +1831,10 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
@@ -1753,6 +1849,10 @@
       <c r="B29" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="K29" t="s">
         <v>44</v>
       </c>
@@ -1764,6 +1864,10 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -1778,6 +1882,10 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
@@ -1792,6 +1900,10 @@
       <c r="B32" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K32" t="s">
         <v>47</v>
       </c>
@@ -1803,6 +1915,10 @@
       <c r="B33" t="s">
         <v>18</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
@@ -1817,6 +1933,10 @@
       <c r="B34" t="s">
         <v>48</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K34" t="s">
         <v>50</v>
       </c>
@@ -1828,6 +1948,10 @@
       <c r="B35" t="s">
         <v>18</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
@@ -1842,6 +1966,10 @@
       <c r="B36" t="s">
         <v>30</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D36" t="s">
         <v>52</v>
       </c>
@@ -1859,6 +1987,10 @@
       <c r="B37" t="s">
         <v>18</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
@@ -1876,6 +2008,10 @@
       <c r="B38" t="s">
         <v>30</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
@@ -1890,6 +2026,10 @@
       <c r="B39" t="s">
         <v>18</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
@@ -1904,6 +2044,10 @@
       <c r="B40" t="s">
         <v>30</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D40" t="s">
         <v>31</v>
       </c>
@@ -1918,6 +2062,10 @@
       <c r="B41" t="s">
         <v>30</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D41" t="s">
         <v>57</v>
       </c>
@@ -1932,6 +2080,10 @@
       <c r="B42" t="s">
         <v>18</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
@@ -1946,6 +2098,10 @@
       <c r="B43" t="s">
         <v>30</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D43" t="s">
         <v>31</v>
       </c>
@@ -1960,6 +2116,10 @@
       <c r="B44" t="s">
         <v>18</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D44" t="s">
         <v>19</v>
       </c>
@@ -1974,6 +2134,10 @@
       <c r="B45" t="s">
         <v>18</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D45" t="s">
         <v>20</v>
       </c>
@@ -1988,6 +2152,10 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D46" t="s">
         <v>31</v>
       </c>
@@ -2002,6 +2170,10 @@
       <c r="B47" t="s">
         <v>18</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
@@ -2016,6 +2188,10 @@
       <c r="B48" t="s">
         <v>18</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D48" t="s">
         <v>20</v>
       </c>
@@ -2030,6 +2206,10 @@
       <c r="B49" t="s">
         <v>18</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
@@ -2044,6 +2224,10 @@
       <c r="B50" t="s">
         <v>18</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
@@ -2058,6 +2242,10 @@
       <c r="B51" t="s">
         <v>18</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D51" t="s">
         <v>19</v>
       </c>
@@ -2072,6 +2260,10 @@
       <c r="B52" t="s">
         <v>30</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
@@ -2086,6 +2278,10 @@
       <c r="B53" t="s">
         <v>18</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
@@ -2100,6 +2296,10 @@
       <c r="B54" t="s">
         <v>30</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="D54" t="s">
         <v>54</v>
       </c>
@@ -2114,6 +2314,10 @@
       <c r="B55" t="s">
         <v>18</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
@@ -2128,6 +2332,10 @@
       <c r="B56" t="s">
         <v>30</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D56" t="s">
         <v>66</v>
       </c>
@@ -2142,6 +2350,10 @@
       <c r="B57" t="s">
         <v>18</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D57" t="s">
         <v>19</v>
       </c>
@@ -2156,6 +2368,10 @@
       <c r="B58" t="s">
         <v>30</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
@@ -2170,6 +2386,10 @@
       <c r="B59" t="s">
         <v>30</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D59" t="s">
         <v>52</v>
       </c>
@@ -2184,6 +2404,10 @@
       <c r="B60" t="s">
         <v>18</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
@@ -2198,6 +2422,10 @@
       <c r="B61" t="s">
         <v>30</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D61" t="s">
         <v>31</v>
       </c>
@@ -2212,6 +2440,10 @@
       <c r="B62" t="s">
         <v>18</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
@@ -2226,6 +2458,10 @@
       <c r="B63" t="s">
         <v>30</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D63" t="s">
         <v>31</v>
       </c>
@@ -2240,6 +2476,10 @@
       <c r="B64" t="s">
         <v>18</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="D64" t="s">
         <v>19</v>
       </c>
@@ -2254,6 +2494,10 @@
       <c r="B65" t="s">
         <v>35</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D65" t="s">
         <v>29</v>
       </c>
@@ -2268,6 +2512,10 @@
       <c r="B66" t="s">
         <v>18</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
@@ -2282,6 +2530,10 @@
       <c r="B67" t="s">
         <v>18</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
@@ -2296,6 +2548,10 @@
       <c r="B68" t="s">
         <v>18</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D68" t="s">
         <v>19</v>
       </c>
@@ -2310,6 +2566,10 @@
       <c r="B69" t="s">
         <v>30</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="D69" t="s">
         <v>66</v>
       </c>
@@ -2324,6 +2584,10 @@
       <c r="B70" t="s">
         <v>18</v>
       </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C113" si="1">A71-A70</f>
+        <v>9</v>
+      </c>
       <c r="D70" t="s">
         <v>19</v>
       </c>
@@ -2338,6 +2602,10 @@
       <c r="B71" t="s">
         <v>18</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="D71" t="s">
         <v>19</v>
       </c>
@@ -2352,6 +2620,10 @@
       <c r="B72" t="s">
         <v>28</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D72" t="s">
         <v>29</v>
       </c>
@@ -2366,6 +2638,10 @@
       <c r="B73" t="s">
         <v>18</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
@@ -2380,6 +2656,10 @@
       <c r="B74" t="s">
         <v>35</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D74" t="s">
         <v>29</v>
       </c>
@@ -2394,6 +2674,10 @@
       <c r="B75" t="s">
         <v>28</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="D75" t="s">
         <v>29</v>
       </c>
@@ -2411,6 +2695,10 @@
       <c r="B76" t="s">
         <v>18</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
@@ -2428,6 +2716,10 @@
       <c r="B77" t="s">
         <v>28</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D77" t="s">
         <v>29</v>
       </c>
@@ -2442,6 +2734,10 @@
       <c r="B78" t="s">
         <v>18</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D78" t="s">
         <v>19</v>
       </c>
@@ -2456,6 +2752,10 @@
       <c r="B79" t="s">
         <v>30</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="D79" t="s">
         <v>31</v>
       </c>
@@ -2473,6 +2773,10 @@
       <c r="B80" t="s">
         <v>18</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="D80" t="s">
         <v>19</v>
       </c>
@@ -2490,6 +2794,10 @@
       <c r="B81" t="s">
         <v>30</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D81" t="s">
         <v>54</v>
       </c>
@@ -2504,6 +2812,10 @@
       <c r="B82" t="s">
         <v>30</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="D82" t="s">
         <v>54</v>
       </c>
@@ -2518,6 +2830,10 @@
       <c r="B83" t="s">
         <v>30</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
       <c r="D83" t="s">
         <v>54</v>
       </c>
@@ -2532,6 +2848,10 @@
       <c r="B84" t="s">
         <v>18</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="D84" t="s">
         <v>19</v>
       </c>
@@ -2546,6 +2866,10 @@
       <c r="B85" t="s">
         <v>30</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D85" t="s">
         <v>66</v>
       </c>
@@ -2560,6 +2884,10 @@
       <c r="B86" t="s">
         <v>18</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
       <c r="D86" t="s">
         <v>19</v>
       </c>
@@ -2574,6 +2902,10 @@
       <c r="B87" t="s">
         <v>30</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D87" t="s">
         <v>66</v>
       </c>
@@ -2588,6 +2920,10 @@
       <c r="B88" t="s">
         <v>30</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D88" t="s">
         <v>66</v>
       </c>
@@ -2602,6 +2938,10 @@
       <c r="B89" t="s">
         <v>18</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="D89" t="s">
         <v>19</v>
       </c>
@@ -2616,6 +2956,10 @@
       <c r="B90" t="s">
         <v>18</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D90" t="s">
         <v>20</v>
       </c>
@@ -2630,6 +2974,10 @@
       <c r="B91" t="s">
         <v>30</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D91" t="s">
         <v>31</v>
       </c>
@@ -2644,6 +2992,10 @@
       <c r="B92" t="s">
         <v>18</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="D92" t="s">
         <v>19</v>
       </c>
@@ -2658,6 +3010,10 @@
       <c r="B93" t="s">
         <v>18</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D93" t="s">
         <v>20</v>
       </c>
@@ -2672,6 +3028,10 @@
       <c r="B94" t="s">
         <v>18</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="D94" t="s">
         <v>19</v>
       </c>
@@ -2686,6 +3046,10 @@
       <c r="B95" t="s">
         <v>18</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D95" t="s">
         <v>20</v>
       </c>
@@ -2700,6 +3064,10 @@
       <c r="B96" t="s">
         <v>18</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D96" t="s">
         <v>19</v>
       </c>
@@ -2714,6 +3082,10 @@
       <c r="B97" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K97" t="s">
         <v>98</v>
       </c>
@@ -2725,6 +3097,10 @@
       <c r="B98" t="s">
         <v>18</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D98" t="s">
         <v>19</v>
       </c>
@@ -2739,6 +3115,10 @@
       <c r="B99" t="s">
         <v>30</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
       <c r="D99" t="s">
         <v>54</v>
       </c>
@@ -2753,6 +3133,10 @@
       <c r="B100" t="s">
         <v>18</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="D100" t="s">
         <v>19</v>
       </c>
@@ -2767,6 +3151,10 @@
       <c r="B101" t="s">
         <v>18</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D101" t="s">
         <v>20</v>
       </c>
@@ -2781,6 +3169,10 @@
       <c r="B102" t="s">
         <v>18</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
       <c r="D102" t="s">
         <v>19</v>
       </c>
@@ -2795,6 +3187,10 @@
       <c r="B103" t="s">
         <v>18</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D103" t="s">
         <v>20</v>
       </c>
@@ -2809,6 +3205,10 @@
       <c r="B104" t="s">
         <v>18</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
       <c r="D104" t="s">
         <v>19</v>
       </c>
@@ -2823,6 +3223,10 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K105" t="s">
         <v>107</v>
       </c>
@@ -2834,6 +3238,10 @@
       <c r="B106" t="s">
         <v>18</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D106" t="s">
         <v>20</v>
       </c>
@@ -2848,6 +3256,10 @@
       <c r="B107" t="s">
         <v>18</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="D107" t="s">
         <v>19</v>
       </c>
@@ -2862,6 +3274,10 @@
       <c r="B108" t="s">
         <v>35</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
@@ -2876,6 +3292,10 @@
       <c r="B109" t="s">
         <v>18</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="D109" t="s">
         <v>19</v>
       </c>
@@ -2890,6 +3310,10 @@
       <c r="B110" t="s">
         <v>18</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D110" t="s">
         <v>20</v>
       </c>
@@ -2904,6 +3328,10 @@
       <c r="B111" t="s">
         <v>30</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="D111" t="s">
         <v>54</v>
       </c>
@@ -2918,6 +3346,10 @@
       <c r="B112" t="s">
         <v>30</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D112" t="s">
         <v>54</v>
       </c>
@@ -2932,6 +3364,10 @@
       <c r="B113" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="K113" t="s">
         <v>112</v>
       </c>
@@ -2940,7 +3376,9 @@
       <c r="A114">
         <v>2616</v>
       </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2951,13 +3389,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D490AC1-1C98-4E40-BBBE-D8310E757287}">
-  <dimension ref="A1:U105"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K103" sqref="K103:K105"/>
+      <selection pane="bottomRight" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3074,6 +3512,10 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5">
+        <f>A6-A5</f>
+        <v>290</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -3088,6 +3530,10 @@
       <c r="B6" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>7</v>
+      </c>
       <c r="K6" t="s">
         <v>117</v>
       </c>
@@ -3099,6 +3545,10 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -3113,6 +3563,10 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
@@ -3127,6 +3581,10 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -3141,6 +3599,10 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
@@ -3155,6 +3617,10 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
@@ -3169,6 +3635,10 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -3183,6 +3653,10 @@
       <c r="B13" t="s">
         <v>115</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -3197,6 +3671,10 @@
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K14" t="s">
         <v>122</v>
       </c>
@@ -3208,6 +3686,10 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
@@ -3222,6 +3704,10 @@
       <c r="B16" t="s">
         <v>30</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
@@ -3236,6 +3722,10 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -3250,6 +3740,10 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
@@ -3264,6 +3758,10 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -3278,6 +3776,10 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
@@ -3292,6 +3794,10 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -3306,6 +3812,10 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
@@ -3320,6 +3830,10 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
@@ -3334,6 +3848,10 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -3348,6 +3866,10 @@
       <c r="B25" t="s">
         <v>18</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -3362,6 +3884,10 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
@@ -3376,6 +3902,10 @@
       <c r="B27" t="s">
         <v>115</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
@@ -3390,6 +3920,10 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
@@ -3404,6 +3938,10 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
@@ -3418,6 +3956,10 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -3432,6 +3974,10 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
@@ -3446,6 +3992,10 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="D32" t="s">
         <v>131</v>
       </c>
@@ -3460,6 +4010,10 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
@@ -3474,6 +4028,10 @@
       <c r="B34" t="s">
         <v>18</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
@@ -3488,6 +4046,10 @@
       <c r="B35" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D35" s="9" t="s">
         <v>31</v>
       </c>
@@ -3502,6 +4064,10 @@
       <c r="B36" t="s">
         <v>18</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
@@ -3516,6 +4082,10 @@
       <c r="B37" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D37" s="9" t="s">
         <v>31</v>
       </c>
@@ -3530,6 +4100,10 @@
       <c r="B38" t="s">
         <v>18</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
@@ -3544,6 +4118,10 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D39" t="s">
         <v>52</v>
       </c>
@@ -3558,6 +4136,10 @@
       <c r="B40" t="s">
         <v>18</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
@@ -3572,6 +4154,10 @@
       <c r="B41" t="s">
         <v>18</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
@@ -3586,6 +4172,10 @@
       <c r="B42" t="s">
         <v>30</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D42" t="s">
         <v>31</v>
       </c>
@@ -3600,6 +4190,10 @@
       <c r="B43" t="s">
         <v>18</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
@@ -3614,6 +4208,10 @@
       <c r="B44" t="s">
         <v>18</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
@@ -3628,6 +4226,10 @@
       <c r="B45" t="s">
         <v>18</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
@@ -3642,6 +4244,10 @@
       <c r="B46" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K46" t="s">
         <v>141</v>
       </c>
@@ -3653,6 +4259,10 @@
       <c r="B47" t="s">
         <v>18</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
@@ -3667,6 +4277,10 @@
       <c r="B48" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K48" t="s">
         <v>144</v>
       </c>
@@ -3681,6 +4295,10 @@
       <c r="B49" t="s">
         <v>18</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
@@ -3695,6 +4313,10 @@
       <c r="B50" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D50" t="s">
         <v>29</v>
       </c>
@@ -3709,6 +4331,10 @@
       <c r="B51" t="s">
         <v>18</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D51" t="s">
         <v>19</v>
       </c>
@@ -3723,6 +4349,10 @@
       <c r="B52" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="K52" t="s">
         <v>147</v>
       </c>
@@ -3734,6 +4364,10 @@
       <c r="B53" t="s">
         <v>30</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D53" t="s">
         <v>31</v>
       </c>
@@ -3748,6 +4382,10 @@
       <c r="B54" t="s">
         <v>30</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D54" t="s">
         <v>32</v>
       </c>
@@ -3762,6 +4400,10 @@
       <c r="B55" t="s">
         <v>30</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D55" t="s">
         <v>32</v>
       </c>
@@ -3776,6 +4418,10 @@
       <c r="B56" t="s">
         <v>18</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
@@ -3790,6 +4436,10 @@
       <c r="B57" t="s">
         <v>30</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D57" t="s">
         <v>31</v>
       </c>
@@ -3804,6 +4454,10 @@
       <c r="B58" t="s">
         <v>18</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="D58" t="s">
         <v>19</v>
       </c>
@@ -3818,6 +4472,10 @@
       <c r="B59" t="s">
         <v>18</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="D59" t="s">
         <v>20</v>
       </c>
@@ -3832,6 +4490,10 @@
       <c r="B60" t="s">
         <v>28</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D60" t="s">
         <v>29</v>
       </c>
@@ -3846,6 +4508,10 @@
       <c r="B61" t="s">
         <v>18</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="D61" t="s">
         <v>19</v>
       </c>
@@ -3860,6 +4526,10 @@
       <c r="B62" t="s">
         <v>115</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D62" t="s">
         <v>29</v>
       </c>
@@ -3874,6 +4544,10 @@
       <c r="B63" t="s">
         <v>18</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
@@ -3888,6 +4562,10 @@
       <c r="B64" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="K64" t="s">
         <v>156</v>
       </c>
@@ -3899,6 +4577,10 @@
       <c r="B65" t="s">
         <v>18</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
       <c r="D65" t="s">
         <v>19</v>
       </c>
@@ -3913,6 +4595,10 @@
       <c r="B66" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="K66" t="s">
         <v>158</v>
       </c>
@@ -3924,6 +4610,10 @@
       <c r="B67" t="s">
         <v>18</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D67" t="s">
         <v>19</v>
       </c>
@@ -3938,6 +4628,10 @@
       <c r="B68" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K68" t="s">
         <v>159</v>
       </c>
@@ -3949,6 +4643,10 @@
       <c r="B69" t="s">
         <v>18</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
@@ -3963,6 +4661,10 @@
       <c r="B70" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C104" si="1">A71-A70</f>
+        <v>5</v>
+      </c>
       <c r="K70" t="s">
         <v>160</v>
       </c>
@@ -3974,6 +4676,10 @@
       <c r="B71" t="s">
         <v>18</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D71" t="s">
         <v>20</v>
       </c>
@@ -3988,6 +4694,10 @@
       <c r="B72" t="s">
         <v>18</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="D72" t="s">
         <v>19</v>
       </c>
@@ -4002,6 +4712,10 @@
       <c r="B73" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K73" t="s">
         <v>160</v>
       </c>
@@ -4013,6 +4727,10 @@
       <c r="B74" t="s">
         <v>18</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
       <c r="D74" t="s">
         <v>19</v>
       </c>
@@ -4027,6 +4745,10 @@
       <c r="B75" t="s">
         <v>30</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D75" t="s">
         <v>131</v>
       </c>
@@ -4041,6 +4763,10 @@
       <c r="B76" t="s">
         <v>18</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
@@ -4055,6 +4781,10 @@
       <c r="B77" t="s">
         <v>30</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D77" t="s">
         <v>31</v>
       </c>
@@ -4069,6 +4799,10 @@
       <c r="B78" t="s">
         <v>18</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
       <c r="D78" t="s">
         <v>19</v>
       </c>
@@ -4083,6 +4817,10 @@
       <c r="B79" t="s">
         <v>30</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D79" t="s">
         <v>31</v>
       </c>
@@ -4097,6 +4835,10 @@
       <c r="B80" t="s">
         <v>18</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
       <c r="D80" t="s">
         <v>19</v>
       </c>
@@ -4111,6 +4853,10 @@
       <c r="B81" t="s">
         <v>30</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D81" t="s">
         <v>32</v>
       </c>
@@ -4125,6 +4871,10 @@
       <c r="B82" t="s">
         <v>18</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
       <c r="D82" t="s">
         <v>19</v>
       </c>
@@ -4139,6 +4889,10 @@
       <c r="B83" t="s">
         <v>30</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D83" t="s">
         <v>31</v>
       </c>
@@ -4153,6 +4907,10 @@
       <c r="B84" t="s">
         <v>18</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
       <c r="D84" t="s">
         <v>19</v>
       </c>
@@ -4167,6 +4925,10 @@
       <c r="B85" t="s">
         <v>18</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D85" t="s">
         <v>20</v>
       </c>
@@ -4181,6 +4943,10 @@
       <c r="B86" t="s">
         <v>18</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="D86" t="s">
         <v>19</v>
       </c>
@@ -4195,6 +4961,10 @@
       <c r="B87" t="s">
         <v>30</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D87" t="s">
         <v>31</v>
       </c>
@@ -4209,6 +4979,10 @@
       <c r="B88" t="s">
         <v>18</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="D88" t="s">
         <v>19</v>
       </c>
@@ -4223,6 +4997,10 @@
       <c r="B89" t="s">
         <v>30</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D89" t="s">
         <v>131</v>
       </c>
@@ -4237,6 +5015,10 @@
       <c r="B90" t="s">
         <v>18</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="D90" t="s">
         <v>19</v>
       </c>
@@ -4251,6 +5033,10 @@
       <c r="B91" t="s">
         <v>115</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
       <c r="D91" t="s">
         <v>29</v>
       </c>
@@ -4265,6 +5051,10 @@
       <c r="B92" t="s">
         <v>18</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
       <c r="D92" t="s">
         <v>19</v>
       </c>
@@ -4279,6 +5069,10 @@
       <c r="B93" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K93" t="s">
         <v>178</v>
       </c>
@@ -4290,6 +5084,10 @@
       <c r="B94" t="s">
         <v>18</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D94" t="s">
         <v>19</v>
       </c>
@@ -4304,6 +5102,10 @@
       <c r="B95" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="K95" t="s">
         <v>178</v>
       </c>
@@ -4315,6 +5117,10 @@
       <c r="B96" t="s">
         <v>18</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="D96" t="s">
         <v>19</v>
       </c>
@@ -4329,6 +5135,10 @@
       <c r="B97" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D97" t="s">
         <v>29</v>
       </c>
@@ -4343,6 +5153,10 @@
       <c r="B98" t="s">
         <v>18</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="D98" t="s">
         <v>19</v>
       </c>
@@ -4357,6 +5171,10 @@
       <c r="B99" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K99" t="s">
         <v>180</v>
       </c>
@@ -4371,6 +5189,10 @@
       <c r="B100" t="s">
         <v>18</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
       <c r="D100" t="s">
         <v>19</v>
       </c>
@@ -4385,6 +5207,10 @@
       <c r="B101" t="s">
         <v>18</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D101" t="s">
         <v>20</v>
       </c>
@@ -4399,6 +5225,10 @@
       <c r="B102" t="s">
         <v>18</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="D102" t="s">
         <v>19</v>
       </c>
@@ -4413,6 +5243,10 @@
       <c r="B103" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K103" t="s">
         <v>185</v>
       </c>
@@ -4424,6 +5258,10 @@
       <c r="B104" t="s">
         <v>18</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
       <c r="D104" t="s">
         <v>19</v>
       </c>
@@ -4435,11 +5273,13 @@
       <c r="A105">
         <v>2730</v>
       </c>
-      <c r="B105" t="s">
-        <v>113</v>
-      </c>
       <c r="K105" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4451,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C88E49-7CB0-4BCC-B221-DD27C490C328}">
   <dimension ref="A1:U211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I195" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="I205" sqref="I205"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC97110-B67D-4605-95C2-9D952A85097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0506B74C-C7F0-40CD-A95D-37CDD7A0B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="5" r:id="rId1"/>
     <sheet name="S2" sheetId="4" r:id="rId2"/>
     <sheet name="S3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S1'!$A$4:$U$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S3'!$A$4:$U$211</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="291">
   <si>
     <t>TRANSECT:</t>
   </si>
@@ -610,9 +614,6 @@
     <t>GOPR1755</t>
   </si>
   <si>
-    <t>braching</t>
-  </si>
-  <si>
     <t>GOPR1755-6</t>
   </si>
   <si>
@@ -679,9 +680,6 @@
     <t>GOPR1770</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>GOPR1770--73</t>
   </si>
   <si>
@@ -809,9 +807,6 @@
   </si>
   <si>
     <t>GOPR1794</t>
-  </si>
-  <si>
-    <t>submasive</t>
   </si>
   <si>
     <t>GOPR1794-5</t>
@@ -939,11 +934,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1301,10 +1298,10 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C113"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,6 +3380,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U115" xr:uid="{6EE288BC-2A6D-46F6-AFDF-199D1688263E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3391,7 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D490AC1-1C98-4E40-BBBE-D8310E757287}">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -5291,11 +5289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C88E49-7CB0-4BCC-B221-DD27C490C328}">
   <dimension ref="A1:U211"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I205" sqref="I205"/>
+      <selection pane="bottomRight" activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5578,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
         <v>189</v>
@@ -5617,7 +5615,7 @@
         <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5635,7 +5633,7 @@
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5653,7 +5651,7 @@
         <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5671,7 +5669,7 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5686,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5704,7 +5702,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5722,7 +5720,7 @@
         <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5740,7 +5738,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5758,7 +5756,7 @@
         <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5773,7 +5771,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5781,7 +5779,7 @@
         <v>265</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -5803,7 +5801,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5821,7 +5819,7 @@
         <v>31</v>
       </c>
       <c r="K28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5839,7 +5837,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5857,7 +5855,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5875,7 +5873,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -5893,7 +5891,7 @@
         <v>66</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -5911,7 +5909,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5926,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -5944,7 +5942,7 @@
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5962,7 +5960,7 @@
         <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -5980,7 +5978,7 @@
         <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -5998,7 +5996,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6016,7 +6014,7 @@
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6034,7 +6032,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6052,7 +6050,7 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -6067,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6085,7 +6083,7 @@
         <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6100,7 +6098,7 @@
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6118,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -6136,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -6154,7 +6152,7 @@
         <v>29</v>
       </c>
       <c r="K47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -6172,7 +6170,7 @@
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -6190,7 +6188,7 @@
         <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -6208,7 +6206,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -6226,7 +6224,7 @@
         <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -6244,7 +6242,7 @@
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -6262,7 +6260,7 @@
         <v>131</v>
       </c>
       <c r="K53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -6280,7 +6278,7 @@
         <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -6298,7 +6296,7 @@
         <v>131</v>
       </c>
       <c r="K55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -6316,7 +6314,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -6331,10 +6329,10 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="K57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -6352,7 +6350,7 @@
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -6370,7 +6368,7 @@
         <v>131</v>
       </c>
       <c r="K59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -6388,7 +6386,7 @@
         <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -6406,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="K61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -6424,7 +6422,7 @@
         <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -6442,7 +6440,7 @@
         <v>31</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -6460,7 +6458,7 @@
         <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -6478,7 +6476,7 @@
         <v>32</v>
       </c>
       <c r="K65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -6496,7 +6494,7 @@
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -6514,7 +6512,7 @@
         <v>31</v>
       </c>
       <c r="K67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -6532,7 +6530,7 @@
         <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -6550,7 +6548,7 @@
         <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -6558,14 +6556,14 @@
         <v>1097</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C133" si="1">A71-A70</f>
         <v>4</v>
       </c>
       <c r="K70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -6583,7 +6581,7 @@
         <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -6601,7 +6599,7 @@
         <v>31</v>
       </c>
       <c r="K72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -6619,7 +6617,7 @@
         <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -6637,7 +6635,7 @@
         <v>29</v>
       </c>
       <c r="K74" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -6655,7 +6653,7 @@
         <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -6673,7 +6671,7 @@
         <v>66</v>
       </c>
       <c r="K76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -6691,7 +6689,7 @@
         <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -6709,7 +6707,7 @@
         <v>29</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -6727,7 +6725,7 @@
         <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -6745,7 +6743,7 @@
         <v>29</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -6763,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -6781,7 +6779,7 @@
         <v>29</v>
       </c>
       <c r="K82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -6799,7 +6797,7 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -6817,7 +6815,7 @@
         <v>31</v>
       </c>
       <c r="K84" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -6835,7 +6833,7 @@
         <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -6853,7 +6851,7 @@
         <v>54</v>
       </c>
       <c r="K86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -6871,7 +6869,7 @@
         <v>19</v>
       </c>
       <c r="K87" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -6889,7 +6887,7 @@
         <v>29</v>
       </c>
       <c r="K88" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -6907,7 +6905,7 @@
         <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -6925,7 +6923,7 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -6943,7 +6941,7 @@
         <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -6961,7 +6959,7 @@
         <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -6976,7 +6974,7 @@
         <v>8</v>
       </c>
       <c r="K93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -6984,14 +6982,14 @@
         <v>1440</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -7009,7 +7007,7 @@
         <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -7027,7 +7025,7 @@
         <v>31</v>
       </c>
       <c r="K96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7045,7 +7043,7 @@
         <v>19</v>
       </c>
       <c r="K97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7053,14 +7051,14 @@
         <v>1460</v>
       </c>
       <c r="B98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K98" t="s">
         <v>237</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K98" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7078,7 +7076,7 @@
         <v>19</v>
       </c>
       <c r="K99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7096,7 +7094,7 @@
         <v>31</v>
       </c>
       <c r="K100" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7114,7 +7112,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7132,7 +7130,7 @@
         <v>52</v>
       </c>
       <c r="K102" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7150,7 +7148,7 @@
         <v>19</v>
       </c>
       <c r="K103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7168,7 +7166,7 @@
         <v>29</v>
       </c>
       <c r="K104" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7186,7 +7184,7 @@
         <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7204,7 +7202,7 @@
         <v>66</v>
       </c>
       <c r="K106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7222,7 +7220,7 @@
         <v>29</v>
       </c>
       <c r="K107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7240,7 +7238,7 @@
         <v>52</v>
       </c>
       <c r="K108" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>51</v>
@@ -7261,7 +7259,7 @@
         <v>57</v>
       </c>
       <c r="K109" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>51</v>
@@ -7282,7 +7280,7 @@
         <v>29</v>
       </c>
       <c r="K110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7300,7 +7298,7 @@
         <v>20</v>
       </c>
       <c r="K111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7318,7 +7316,7 @@
         <v>19</v>
       </c>
       <c r="K112" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -7336,7 +7334,7 @@
         <v>54</v>
       </c>
       <c r="K113" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -7354,7 +7352,7 @@
         <v>20</v>
       </c>
       <c r="K114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -7372,7 +7370,7 @@
         <v>52</v>
       </c>
       <c r="K115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -7390,7 +7388,7 @@
         <v>31</v>
       </c>
       <c r="K116" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -7408,7 +7406,7 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -7426,7 +7424,7 @@
         <v>54</v>
       </c>
       <c r="K118" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -7444,7 +7442,7 @@
         <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -7462,7 +7460,7 @@
         <v>20</v>
       </c>
       <c r="K120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -7480,7 +7478,7 @@
         <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -7498,7 +7496,7 @@
         <v>20</v>
       </c>
       <c r="K122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -7516,7 +7514,7 @@
         <v>19</v>
       </c>
       <c r="K123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -7531,7 +7529,7 @@
         <v>4</v>
       </c>
       <c r="K124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -7549,7 +7547,7 @@
         <v>19</v>
       </c>
       <c r="K125" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -7567,7 +7565,7 @@
         <v>20</v>
       </c>
       <c r="K126" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -7585,7 +7583,7 @@
         <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -7603,7 +7601,7 @@
         <v>25</v>
       </c>
       <c r="K128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -7621,7 +7619,7 @@
         <v>32</v>
       </c>
       <c r="K129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -7639,7 +7637,7 @@
         <v>29</v>
       </c>
       <c r="K130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -7657,7 +7655,7 @@
         <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -7672,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="K132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -7690,7 +7688,7 @@
         <v>19</v>
       </c>
       <c r="K133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -7705,10 +7703,10 @@
         <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="K134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -7726,7 +7724,7 @@
         <v>19</v>
       </c>
       <c r="K135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -7744,7 +7742,7 @@
         <v>66</v>
       </c>
       <c r="K136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -7762,7 +7760,7 @@
         <v>29</v>
       </c>
       <c r="K137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -7780,7 +7778,7 @@
         <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -7798,7 +7796,7 @@
         <v>31</v>
       </c>
       <c r="K139" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -7816,7 +7814,7 @@
         <v>19</v>
       </c>
       <c r="K140" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -7834,7 +7832,7 @@
         <v>31</v>
       </c>
       <c r="K141" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -7852,7 +7850,7 @@
         <v>19</v>
       </c>
       <c r="K142" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -7867,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="K143" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -7882,7 +7880,7 @@
         <v>2</v>
       </c>
       <c r="K144" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -7900,7 +7898,7 @@
         <v>19</v>
       </c>
       <c r="K145" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -7918,7 +7916,7 @@
         <v>31</v>
       </c>
       <c r="K146" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -7936,7 +7934,7 @@
         <v>20</v>
       </c>
       <c r="K147" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -7954,7 +7952,7 @@
         <v>19</v>
       </c>
       <c r="K148" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -7969,7 +7967,7 @@
         <v>5</v>
       </c>
       <c r="K149" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -7987,7 +7985,7 @@
         <v>19</v>
       </c>
       <c r="K150" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -8002,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="K151" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -8020,7 +8018,7 @@
         <v>19</v>
       </c>
       <c r="K152" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -8038,7 +8036,7 @@
         <v>131</v>
       </c>
       <c r="K153" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -8056,7 +8054,7 @@
         <v>19</v>
       </c>
       <c r="K154" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -8074,7 +8072,7 @@
         <v>54</v>
       </c>
       <c r="K155" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -8089,7 +8087,7 @@
         <v>3</v>
       </c>
       <c r="K156" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -8107,7 +8105,7 @@
         <v>20</v>
       </c>
       <c r="K157" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -8125,7 +8123,7 @@
         <v>19</v>
       </c>
       <c r="K158" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -8140,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="K159" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -8158,7 +8156,7 @@
         <v>19</v>
       </c>
       <c r="K160" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -8176,7 +8174,7 @@
         <v>20</v>
       </c>
       <c r="K161" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -8194,7 +8192,7 @@
         <v>19</v>
       </c>
       <c r="K162" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -8209,7 +8207,7 @@
         <v>17</v>
       </c>
       <c r="K163" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -8227,7 +8225,7 @@
         <v>54</v>
       </c>
       <c r="K164" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -8245,7 +8243,7 @@
         <v>19</v>
       </c>
       <c r="K165" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -8263,7 +8261,7 @@
         <v>31</v>
       </c>
       <c r="K166" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -8281,7 +8279,7 @@
         <v>19</v>
       </c>
       <c r="K167" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -8299,7 +8297,7 @@
         <v>20</v>
       </c>
       <c r="K168" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -8317,7 +8315,7 @@
         <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -8335,7 +8333,7 @@
         <v>54</v>
       </c>
       <c r="K170" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -8353,7 +8351,7 @@
         <v>66</v>
       </c>
       <c r="K171" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -8371,7 +8369,7 @@
         <v>19</v>
       </c>
       <c r="K172" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -8386,7 +8384,7 @@
         <v>4</v>
       </c>
       <c r="K173" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -8404,7 +8402,7 @@
         <v>19</v>
       </c>
       <c r="K174" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -8422,7 +8420,7 @@
         <v>54</v>
       </c>
       <c r="K175" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -8440,7 +8438,7 @@
         <v>19</v>
       </c>
       <c r="K176" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -8458,7 +8456,7 @@
         <v>54</v>
       </c>
       <c r="K177" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -8476,7 +8474,7 @@
         <v>20</v>
       </c>
       <c r="K178" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -8494,7 +8492,7 @@
         <v>19</v>
       </c>
       <c r="K179" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -8512,7 +8510,7 @@
         <v>54</v>
       </c>
       <c r="K180" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -8530,7 +8528,7 @@
         <v>54</v>
       </c>
       <c r="K181" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -8548,7 +8546,7 @@
         <v>20</v>
       </c>
       <c r="K182" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -8566,7 +8564,7 @@
         <v>54</v>
       </c>
       <c r="K183" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -8584,7 +8582,7 @@
         <v>54</v>
       </c>
       <c r="K184" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -8602,7 +8600,7 @@
         <v>54</v>
       </c>
       <c r="K185" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -8620,7 +8618,7 @@
         <v>19</v>
       </c>
       <c r="K186" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -8635,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="K187" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -8653,7 +8651,7 @@
         <v>19</v>
       </c>
       <c r="K188" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -8668,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -8686,7 +8684,7 @@
         <v>19</v>
       </c>
       <c r="K190" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -8704,7 +8702,7 @@
         <v>66</v>
       </c>
       <c r="K191" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -8722,7 +8720,7 @@
         <v>19</v>
       </c>
       <c r="K192" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -8740,7 +8738,7 @@
         <v>66</v>
       </c>
       <c r="K193" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -8758,7 +8756,7 @@
         <v>19</v>
       </c>
       <c r="K194" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -8776,7 +8774,7 @@
         <v>31</v>
       </c>
       <c r="K195" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -8794,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="K196" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -8812,7 +8810,7 @@
         <v>31</v>
       </c>
       <c r="K197" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -8830,7 +8828,7 @@
         <v>20</v>
       </c>
       <c r="K198" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -8845,7 +8843,7 @@
         <v>4</v>
       </c>
       <c r="K199" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -8863,7 +8861,7 @@
         <v>19</v>
       </c>
       <c r="K200" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -8878,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="K201" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -8896,7 +8894,7 @@
         <v>32</v>
       </c>
       <c r="K202" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -8911,7 +8909,7 @@
         <v>12</v>
       </c>
       <c r="K203" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -8929,7 +8927,7 @@
         <v>19</v>
       </c>
       <c r="K204" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -8937,7 +8935,7 @@
         <v>2650</v>
       </c>
       <c r="B205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
@@ -8959,7 +8957,7 @@
         <v>52</v>
       </c>
       <c r="K206" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -8977,7 +8975,7 @@
         <v>19</v>
       </c>
       <c r="K207" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -8995,7 +8993,7 @@
         <v>54</v>
       </c>
       <c r="K208" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -9013,7 +9011,7 @@
         <v>54</v>
       </c>
       <c r="K209" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -9021,7 +9019,7 @@
         <v>2770</v>
       </c>
       <c r="K210" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -9030,6 +9028,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U211" xr:uid="{63C88E49-7CB0-4BCC-B221-DD27C490C328}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0506B74C-C7F0-40CD-A95D-37CDD7A0B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F3572C-BEF7-4652-B1D5-E92F9B3CCEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="290">
   <si>
     <t>TRANSECT:</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>GOPR16116</t>
-  </si>
-  <si>
-    <t>cca</t>
   </si>
   <si>
     <t>GOPR16116--20</t>
@@ -1298,10 +1295,10 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
@@ -1533,7 +1530,7 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1541,17 +1538,17 @@
         <v>324</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1559,17 +1556,17 @@
         <v>326</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1587,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1595,17 +1592,17 @@
         <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1623,7 +1620,7 @@
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1631,17 +1628,17 @@
         <v>387</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,7 +1656,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1667,17 +1664,17 @@
         <v>481</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1695,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1703,17 +1700,17 @@
         <v>519</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1731,7 +1728,7 @@
         <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1739,17 +1736,17 @@
         <v>597</v>
       </c>
       <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1767,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1775,17 +1772,17 @@
         <v>622</v>
       </c>
       <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1803,7 +1800,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1811,14 +1808,14 @@
         <v>651</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1836,7 +1833,7 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1844,14 +1841,14 @@
         <v>665</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1859,17 +1856,17 @@
         <v>675</v>
       </c>
       <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
       <c r="K30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1887,7 +1884,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1895,14 +1892,14 @@
         <v>740</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1920,7 +1917,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1928,14 +1925,14 @@
         <v>765</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1953,7 +1950,7 @@
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1961,20 +1958,20 @@
         <v>774</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" t="s">
         <v>52</v>
       </c>
-      <c r="K36" t="s">
-        <v>53</v>
-      </c>
       <c r="L36" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1992,10 +1989,10 @@
         <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2003,17 +2000,17 @@
         <v>818</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2031,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2039,17 +2036,17 @@
         <v>860</v>
       </c>
       <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
         <v>30</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2057,17 +2054,17 @@
         <v>866</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2085,7 +2082,7 @@
         <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2093,17 +2090,17 @@
         <v>950</v>
       </c>
       <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
-      </c>
       <c r="K43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2121,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2139,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2147,17 +2144,17 @@
         <v>969</v>
       </c>
       <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
         <v>30</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>31</v>
-      </c>
       <c r="K46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2175,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2193,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2211,7 +2208,7 @@
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2229,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2247,7 +2244,7 @@
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2255,17 +2252,17 @@
         <v>1080</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2283,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2291,17 +2288,17 @@
         <v>1115</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2319,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2327,17 +2324,17 @@
         <v>1195</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2355,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2363,17 +2360,17 @@
         <v>1206</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2381,17 +2378,17 @@
         <v>1278</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2409,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2417,17 +2414,17 @@
         <v>1291</v>
       </c>
       <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
         <v>30</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>31</v>
-      </c>
       <c r="K61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2445,7 +2442,7 @@
         <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2453,17 +2450,17 @@
         <v>1324</v>
       </c>
       <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
         <v>30</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>31</v>
-      </c>
       <c r="K63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2481,7 +2478,7 @@
         <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2489,17 +2486,17 @@
         <v>1396</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2517,7 +2514,7 @@
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -2532,10 +2529,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -2553,7 +2550,7 @@
         <v>19</v>
       </c>
       <c r="K68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -2561,17 +2558,17 @@
         <v>1515</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -2589,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="K70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -2607,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -2615,17 +2612,17 @@
         <v>1615</v>
       </c>
       <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
         <v>28</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>29</v>
-      </c>
       <c r="K72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -2643,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -2651,17 +2648,17 @@
         <v>1626</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -2669,20 +2666,20 @@
         <v>1630</v>
       </c>
       <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
         <v>28</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D75" t="s">
-        <v>29</v>
-      </c>
       <c r="K75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -2700,10 +2697,10 @@
         <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -2711,17 +2708,17 @@
         <v>1677</v>
       </c>
       <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>28</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>29</v>
-      </c>
       <c r="K77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -2739,7 +2736,7 @@
         <v>19</v>
       </c>
       <c r="K78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -2747,20 +2744,20 @@
         <v>1690</v>
       </c>
       <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
         <v>30</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D79" t="s">
-        <v>31</v>
-      </c>
       <c r="K79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -2778,10 +2775,10 @@
         <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -2789,17 +2786,17 @@
         <v>1723</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -2807,17 +2804,17 @@
         <v>1730</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -2825,17 +2822,17 @@
         <v>1762</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -2853,7 +2850,7 @@
         <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -2861,17 +2858,17 @@
         <v>1840</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -2889,7 +2886,7 @@
         <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -2897,17 +2894,17 @@
         <v>1884</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -2915,17 +2912,17 @@
         <v>1890</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -2943,7 +2940,7 @@
         <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -2961,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -2969,17 +2966,17 @@
         <v>1920</v>
       </c>
       <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
         <v>30</v>
       </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>31</v>
-      </c>
       <c r="K91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -2997,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -3015,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -3033,7 +3030,7 @@
         <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -3051,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -3069,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="K96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -3077,14 +3074,14 @@
         <v>2103</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -3102,7 +3099,7 @@
         <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -3110,17 +3107,17 @@
         <v>2112</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -3138,7 +3135,7 @@
         <v>19</v>
       </c>
       <c r="K100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -3156,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -3174,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="K102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -3192,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="K103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -3210,7 +3207,7 @@
         <v>19</v>
       </c>
       <c r="K104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -3218,14 +3215,14 @@
         <v>2503</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -3243,7 +3240,7 @@
         <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -3261,7 +3258,7 @@
         <v>19</v>
       </c>
       <c r="K107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -3269,17 +3266,17 @@
         <v>2537</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -3297,7 +3294,7 @@
         <v>19</v>
       </c>
       <c r="K109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -3315,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="K110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -3323,17 +3320,17 @@
         <v>2587</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -3341,17 +3338,17 @@
         <v>2603</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -3359,14 +3356,14 @@
         <v>2610</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -3376,7 +3373,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3518,7 +3515,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -3526,14 +3523,14 @@
         <v>308</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C69" si="0">A7-A6</f>
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3551,7 +3548,7 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3559,17 +3556,17 @@
         <v>477</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3587,7 +3584,7 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -3595,17 +3592,17 @@
         <v>489</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -3623,7 +3620,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3641,7 +3638,7 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -3649,17 +3646,17 @@
         <v>562</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -3667,14 +3664,14 @@
         <v>758</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -3692,7 +3689,7 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -3700,17 +3697,17 @@
         <v>794</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3728,7 +3725,7 @@
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3736,17 +3733,17 @@
         <v>800</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3764,7 +3761,7 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3782,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3800,7 +3797,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3808,17 +3805,17 @@
         <v>884</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3836,7 +3833,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3844,17 +3841,17 @@
         <v>907</v>
       </c>
       <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3872,7 +3869,7 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3890,7 +3887,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3898,17 +3895,17 @@
         <v>929</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3926,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3944,7 +3941,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3952,17 +3949,17 @@
         <v>988</v>
       </c>
       <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3980,7 +3977,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3988,17 +3985,17 @@
         <v>1002</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" t="s">
         <v>131</v>
-      </c>
-      <c r="K32" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -4006,17 +4003,17 @@
         <v>1019</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -4034,7 +4031,7 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -4042,17 +4039,17 @@
         <v>1087</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -4070,7 +4067,7 @@
         <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -4078,17 +4075,17 @@
         <v>1097</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="K37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -4106,7 +4103,7 @@
         <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -4114,17 +4111,17 @@
         <v>1105</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -4142,7 +4139,7 @@
         <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -4160,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -4168,17 +4165,17 @@
         <v>1126</v>
       </c>
       <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>31</v>
-      </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -4196,7 +4193,7 @@
         <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -4214,7 +4211,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -4232,7 +4229,7 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4240,14 +4237,14 @@
         <v>1210</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -4265,7 +4262,7 @@
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -4273,17 +4270,17 @@
         <v>1275</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -4301,7 +4298,7 @@
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -4309,17 +4306,17 @@
         <v>1314</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -4337,7 +4334,7 @@
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -4345,14 +4342,14 @@
         <v>1350</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -4360,17 +4357,17 @@
         <v>1376</v>
       </c>
       <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
         <v>30</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>31</v>
-      </c>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -4378,17 +4375,17 @@
         <v>1380</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4396,17 +4393,17 @@
         <v>1386</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4424,7 +4421,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4432,17 +4429,17 @@
         <v>1397</v>
       </c>
       <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>31</v>
-      </c>
       <c r="K57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4460,7 +4457,7 @@
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4478,7 +4475,7 @@
         <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4486,17 +4483,17 @@
         <v>1453</v>
       </c>
       <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
         <v>28</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>29</v>
-      </c>
       <c r="K60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4514,7 +4511,7 @@
         <v>19</v>
       </c>
       <c r="K61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4522,17 +4519,17 @@
         <v>1505</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4550,7 +4547,7 @@
         <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4558,14 +4555,14 @@
         <v>1534</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4583,7 +4580,7 @@
         <v>19</v>
       </c>
       <c r="K65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4591,14 +4588,14 @@
         <v>1684</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4616,7 +4613,7 @@
         <v>19</v>
       </c>
       <c r="K67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4624,14 +4621,14 @@
         <v>1700</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4649,7 +4646,7 @@
         <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4657,14 +4654,14 @@
         <v>1710</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C104" si="1">A71-A70</f>
         <v>5</v>
       </c>
       <c r="K70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4682,7 +4679,7 @@
         <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4700,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4708,14 +4705,14 @@
         <v>1736</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4733,7 +4730,7 @@
         <v>19</v>
       </c>
       <c r="K74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4741,17 +4738,17 @@
         <v>1835</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4769,7 +4766,7 @@
         <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4777,17 +4774,17 @@
         <v>1855</v>
       </c>
       <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
         <v>30</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>31</v>
-      </c>
       <c r="K77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4805,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="K78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4813,17 +4810,17 @@
         <v>1924</v>
       </c>
       <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
         <v>30</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
-        <v>31</v>
-      </c>
       <c r="K79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4841,7 +4838,7 @@
         <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4849,17 +4846,17 @@
         <v>2020</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4877,7 +4874,7 @@
         <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4885,17 +4882,17 @@
         <v>2066</v>
       </c>
       <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
         <v>30</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>31</v>
-      </c>
       <c r="K83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4913,7 +4910,7 @@
         <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4931,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4949,7 +4946,7 @@
         <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4957,17 +4954,17 @@
         <v>2209</v>
       </c>
       <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
         <v>30</v>
       </c>
-      <c r="C87">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>31</v>
-      </c>
       <c r="K87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4985,7 +4982,7 @@
         <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4993,17 +4990,17 @@
         <v>2240</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5021,7 +5018,7 @@
         <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5029,17 +5026,17 @@
         <v>2273</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5057,7 +5054,7 @@
         <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5065,14 +5062,14 @@
         <v>2548</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5090,7 +5087,7 @@
         <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5098,14 +5095,14 @@
         <v>2557</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5123,7 +5120,7 @@
         <v>19</v>
       </c>
       <c r="K96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5131,17 +5128,17 @@
         <v>2588</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5159,7 +5156,7 @@
         <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5167,17 +5164,17 @@
         <v>2610</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5195,7 +5192,7 @@
         <v>19</v>
       </c>
       <c r="K100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5213,7 +5210,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -5231,7 +5228,7 @@
         <v>19</v>
       </c>
       <c r="K102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -5239,14 +5236,14 @@
         <v>2684</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -5264,7 +5261,7 @@
         <v>19</v>
       </c>
       <c r="K104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -5272,12 +5269,12 @@
         <v>2730</v>
       </c>
       <c r="K105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5290,10 +5287,10 @@
   <dimension ref="A1:U211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D212" sqref="D212"/>
+      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5417,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -5435,7 +5432,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -5453,7 +5450,7 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -5461,17 +5458,17 @@
         <v>91</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -5489,7 +5486,7 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -5507,7 +5504,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -5525,7 +5522,7 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -5533,17 +5530,17 @@
         <v>124</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
       <c r="K12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -5561,7 +5558,7 @@
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -5569,17 +5566,17 @@
         <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -5597,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -5605,17 +5602,17 @@
         <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5633,7 +5630,7 @@
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5641,17 +5638,17 @@
         <v>190</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5669,7 +5666,7 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5677,14 +5674,14 @@
         <v>206</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5702,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5710,17 +5707,17 @@
         <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5738,7 +5735,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5746,17 +5743,17 @@
         <v>257</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5764,14 +5761,14 @@
         <v>261</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5779,7 +5776,7 @@
         <v>265</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -5801,7 +5798,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5809,17 +5806,17 @@
         <v>286</v>
       </c>
       <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
       <c r="K28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5837,7 +5834,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5855,7 +5852,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5873,7 +5870,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -5881,17 +5878,17 @@
         <v>323</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -5909,7 +5906,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5917,14 +5914,14 @@
         <v>363</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -5942,7 +5939,7 @@
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5950,17 +5947,17 @@
         <v>368</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -5978,7 +5975,7 @@
         <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -5996,7 +5993,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6014,7 +6011,7 @@
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6032,7 +6029,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6050,7 +6047,7 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -6058,14 +6055,14 @@
         <v>526</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6083,7 +6080,7 @@
         <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6091,14 +6088,14 @@
         <v>536</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6116,7 +6113,7 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -6134,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -6142,17 +6139,17 @@
         <v>569</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -6170,7 +6167,7 @@
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -6178,17 +6175,17 @@
         <v>597</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -6206,7 +6203,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -6214,17 +6211,17 @@
         <v>617</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -6242,7 +6239,7 @@
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -6250,17 +6247,17 @@
         <v>668</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -6278,7 +6275,7 @@
         <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -6286,17 +6283,17 @@
         <v>688</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -6314,7 +6311,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -6322,17 +6319,17 @@
         <v>722</v>
       </c>
       <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>31</v>
-      </c>
       <c r="K57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -6350,7 +6347,7 @@
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -6358,17 +6355,17 @@
         <v>883</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -6386,7 +6383,7 @@
         <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -6394,17 +6391,17 @@
         <v>903</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -6422,7 +6419,7 @@
         <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -6430,17 +6427,17 @@
         <v>933</v>
       </c>
       <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
         <v>30</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D63" t="s">
-        <v>31</v>
-      </c>
       <c r="K63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -6458,7 +6455,7 @@
         <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -6466,17 +6463,17 @@
         <v>996</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -6494,7 +6491,7 @@
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -6502,17 +6499,17 @@
         <v>1044</v>
       </c>
       <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
         <v>30</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>31</v>
-      </c>
       <c r="K67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -6520,17 +6517,17 @@
         <v>1048</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -6548,7 +6545,7 @@
         <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -6556,14 +6553,14 @@
         <v>1097</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C133" si="1">A71-A70</f>
         <v>4</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -6581,7 +6578,7 @@
         <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -6589,17 +6586,17 @@
         <v>1136</v>
       </c>
       <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
         <v>30</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>31</v>
-      </c>
       <c r="K72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -6617,7 +6614,7 @@
         <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -6625,17 +6622,17 @@
         <v>1155</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -6653,7 +6650,7 @@
         <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -6661,17 +6658,17 @@
         <v>1178</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -6689,7 +6686,7 @@
         <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -6697,17 +6694,17 @@
         <v>1275</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -6725,7 +6722,7 @@
         <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -6733,17 +6730,17 @@
         <v>1288</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -6761,7 +6758,7 @@
         <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -6769,17 +6766,17 @@
         <v>1331</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -6797,7 +6794,7 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -6805,17 +6802,17 @@
         <v>1340</v>
       </c>
       <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
         <v>30</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
-        <v>31</v>
-      </c>
       <c r="K84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -6833,7 +6830,7 @@
         <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -6841,17 +6838,17 @@
         <v>1358</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -6869,7 +6866,7 @@
         <v>19</v>
       </c>
       <c r="K87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -6877,17 +6874,17 @@
         <v>1381</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -6905,7 +6902,7 @@
         <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -6923,7 +6920,7 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -6941,7 +6938,7 @@
         <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -6959,7 +6956,7 @@
         <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -6974,7 +6971,7 @@
         <v>8</v>
       </c>
       <c r="K93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -6982,14 +6979,14 @@
         <v>1440</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -7007,7 +7004,7 @@
         <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -7015,17 +7012,17 @@
         <v>1453</v>
       </c>
       <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
         <v>30</v>
       </c>
-      <c r="C96">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
-        <v>31</v>
-      </c>
       <c r="K96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7043,7 +7040,7 @@
         <v>19</v>
       </c>
       <c r="K97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7051,14 +7048,14 @@
         <v>1460</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7076,7 +7073,7 @@
         <v>19</v>
       </c>
       <c r="K99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7084,17 +7081,17 @@
         <v>1467</v>
       </c>
       <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
         <v>30</v>
       </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D100" t="s">
-        <v>31</v>
-      </c>
       <c r="K100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7112,7 +7109,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7120,17 +7117,17 @@
         <v>1480</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7148,7 +7145,7 @@
         <v>19</v>
       </c>
       <c r="K103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7156,17 +7153,17 @@
         <v>1520</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7184,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7192,17 +7189,17 @@
         <v>1566</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7210,17 +7207,17 @@
         <v>1583</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7228,20 +7225,20 @@
         <v>1592</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7249,20 +7246,20 @@
         <v>1596</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7270,17 +7267,17 @@
         <v>1598</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7298,7 +7295,7 @@
         <v>20</v>
       </c>
       <c r="K111" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7316,7 +7313,7 @@
         <v>19</v>
       </c>
       <c r="K112" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -7324,17 +7321,17 @@
         <v>1610</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -7352,7 +7349,7 @@
         <v>20</v>
       </c>
       <c r="K114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -7360,17 +7357,17 @@
         <v>1633</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -7378,17 +7375,17 @@
         <v>1648</v>
       </c>
       <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
         <v>30</v>
       </c>
-      <c r="C116">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D116" t="s">
-        <v>31</v>
-      </c>
       <c r="K116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -7406,7 +7403,7 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -7414,17 +7411,17 @@
         <v>1669</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -7442,7 +7439,7 @@
         <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -7460,7 +7457,7 @@
         <v>20</v>
       </c>
       <c r="K120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -7478,7 +7475,7 @@
         <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -7496,7 +7493,7 @@
         <v>20</v>
       </c>
       <c r="K122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -7514,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="K123" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -7522,14 +7519,14 @@
         <v>1722</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -7547,7 +7544,7 @@
         <v>19</v>
       </c>
       <c r="K125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -7565,7 +7562,7 @@
         <v>20</v>
       </c>
       <c r="K126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -7583,7 +7580,7 @@
         <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -7598,10 +7595,10 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K128" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -7609,17 +7606,17 @@
         <v>1762</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K129" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -7627,17 +7624,17 @@
         <v>1767</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K130" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -7655,7 +7652,7 @@
         <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -7663,14 +7660,14 @@
         <v>1823</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C132">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -7688,7 +7685,7 @@
         <v>19</v>
       </c>
       <c r="K133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -7696,17 +7693,17 @@
         <v>1842</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134">
         <f t="shared" ref="C134:C197" si="2">A135-A134</f>
         <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K134" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -7724,7 +7721,7 @@
         <v>19</v>
       </c>
       <c r="K135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -7732,17 +7729,17 @@
         <v>1885</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -7750,17 +7747,17 @@
         <v>1889</v>
       </c>
       <c r="B137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K137" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -7778,7 +7775,7 @@
         <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -7786,17 +7783,17 @@
         <v>1900</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -7814,7 +7811,7 @@
         <v>19</v>
       </c>
       <c r="K140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -7822,17 +7819,17 @@
         <v>1928</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -7850,7 +7847,7 @@
         <v>19</v>
       </c>
       <c r="K142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -7858,14 +7855,14 @@
         <v>1968</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K143" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -7873,14 +7870,14 @@
         <v>1970</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K144" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -7898,7 +7895,7 @@
         <v>19</v>
       </c>
       <c r="K145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -7906,17 +7903,17 @@
         <v>1977</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -7934,7 +7931,7 @@
         <v>20</v>
       </c>
       <c r="K147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -7952,7 +7949,7 @@
         <v>19</v>
       </c>
       <c r="K148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -7960,14 +7957,14 @@
         <v>2008</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -7985,7 +7982,7 @@
         <v>19</v>
       </c>
       <c r="K150" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -7993,14 +7990,14 @@
         <v>2016</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K151" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -8018,7 +8015,7 @@
         <v>19</v>
       </c>
       <c r="K152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -8026,17 +8023,17 @@
         <v>2033</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -8054,7 +8051,7 @@
         <v>19</v>
       </c>
       <c r="K154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -8062,17 +8059,17 @@
         <v>2068</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -8080,14 +8077,14 @@
         <v>2097</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -8105,7 +8102,7 @@
         <v>20</v>
       </c>
       <c r="K157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -8123,7 +8120,7 @@
         <v>19</v>
       </c>
       <c r="K158" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -8131,14 +8128,14 @@
         <v>2133</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K159" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -8156,7 +8153,7 @@
         <v>19</v>
       </c>
       <c r="K160" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -8174,7 +8171,7 @@
         <v>20</v>
       </c>
       <c r="K161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -8192,7 +8189,7 @@
         <v>19</v>
       </c>
       <c r="K162" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -8200,14 +8197,14 @@
         <v>2150</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K163" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -8215,17 +8212,17 @@
         <v>2167</v>
       </c>
       <c r="B164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K164" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -8243,7 +8240,7 @@
         <v>19</v>
       </c>
       <c r="K165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -8251,17 +8248,17 @@
         <v>2188</v>
       </c>
       <c r="B166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K166" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -8279,7 +8276,7 @@
         <v>19</v>
       </c>
       <c r="K167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -8297,7 +8294,7 @@
         <v>20</v>
       </c>
       <c r="K168" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -8305,17 +8302,17 @@
         <v>2195</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -8323,17 +8320,17 @@
         <v>2197</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K170" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -8341,17 +8338,17 @@
         <v>2224</v>
       </c>
       <c r="B171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K171" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -8369,7 +8366,7 @@
         <v>19</v>
       </c>
       <c r="K172" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -8377,14 +8374,14 @@
         <v>2230</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K173" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -8402,7 +8399,7 @@
         <v>19</v>
       </c>
       <c r="K174" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -8410,17 +8407,17 @@
         <v>2240</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -8438,7 +8435,7 @@
         <v>19</v>
       </c>
       <c r="K176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -8446,17 +8443,17 @@
         <v>2282</v>
       </c>
       <c r="B177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -8474,7 +8471,7 @@
         <v>20</v>
       </c>
       <c r="K178" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -8492,7 +8489,7 @@
         <v>19</v>
       </c>
       <c r="K179" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -8500,17 +8497,17 @@
         <v>2342</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -8518,17 +8515,17 @@
         <v>2351</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K181" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -8546,7 +8543,7 @@
         <v>20</v>
       </c>
       <c r="K182" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -8554,17 +8551,17 @@
         <v>2372</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -8572,17 +8569,17 @@
         <v>2385</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K184" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -8590,17 +8587,17 @@
         <v>2395</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K185" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -8618,7 +8615,7 @@
         <v>19</v>
       </c>
       <c r="K186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -8626,14 +8623,14 @@
         <v>2441</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K187" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -8651,7 +8648,7 @@
         <v>19</v>
       </c>
       <c r="K188" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -8659,14 +8656,14 @@
         <v>2449</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -8684,7 +8681,7 @@
         <v>19</v>
       </c>
       <c r="K190" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -8692,17 +8689,17 @@
         <v>2452</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K191" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -8720,7 +8717,7 @@
         <v>19</v>
       </c>
       <c r="K192" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -8728,17 +8725,17 @@
         <v>2485</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K193" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -8756,7 +8753,7 @@
         <v>19</v>
       </c>
       <c r="K194" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -8764,17 +8761,17 @@
         <v>2536</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C195">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K195" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -8792,7 +8789,7 @@
         <v>19</v>
       </c>
       <c r="K196" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -8800,17 +8797,17 @@
         <v>2567</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C197">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K197" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -8828,7 +8825,7 @@
         <v>20</v>
       </c>
       <c r="K198" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -8836,14 +8833,14 @@
         <v>2582</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K199" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -8861,7 +8858,7 @@
         <v>19</v>
       </c>
       <c r="K200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -8869,14 +8866,14 @@
         <v>2592</v>
       </c>
       <c r="B201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K201" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -8884,17 +8881,17 @@
         <v>2595</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K202" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -8902,14 +8899,14 @@
         <v>2610</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K203" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -8927,7 +8924,7 @@
         <v>19</v>
       </c>
       <c r="K204" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -8935,7 +8932,7 @@
         <v>2650</v>
       </c>
       <c r="B205" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
@@ -8947,17 +8944,17 @@
         <v>2700</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K206" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -8975,7 +8972,7 @@
         <v>19</v>
       </c>
       <c r="K207" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -8983,17 +8980,17 @@
         <v>2728</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K208" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -9001,17 +8998,17 @@
         <v>2740</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -9019,12 +9016,12 @@
         <v>2770</v>
       </c>
       <c r="K210" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F3572C-BEF7-4652-B1D5-E92F9B3CCEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A34D58-0BB1-48F8-9DB5-699FCDDA4702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S1'!$A$4:$U$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'S2'!$A$4:$U$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S3'!$A$4:$U$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3387,10 +3388,10 @@
   <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B106" sqref="B106"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5278,6 +5279,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U106" xr:uid="{5D490AC1-1C98-4E40-BBBE-D8310E757287}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5287,10 +5289,10 @@
   <dimension ref="A1:U211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
